--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1020">
   <si>
     <t>anchor score</t>
   </si>
@@ -334,571 +334,571 @@
     <t>complaint</t>
   </si>
   <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hungry</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>friend</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3439,10 +3439,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3721,7 +3721,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K7">
         <v>0.8611111111111112</v>
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K8">
         <v>0.8461538461538461</v>
@@ -3821,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K9">
         <v>0.84251968503937</v>
@@ -3971,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12">
         <v>0.7564102564102564</v>
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <v>0.7142857142857143</v>
@@ -4071,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K14">
         <v>0.7017543859649122</v>
@@ -4171,28 +4171,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="K16">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L16">
         <v>156</v>
       </c>
       <c r="M16">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4271,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K18">
         <v>0.6382978723404256</v>
@@ -4371,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K20">
         <v>0.6263736263736264</v>
@@ -4421,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K21">
         <v>0.6111111111111112</v>
@@ -4571,7 +4571,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K24">
         <v>0.5789473684210527</v>
@@ -4621,7 +4621,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K25">
         <v>0.5714285714285714</v>
@@ -4671,28 +4671,28 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="K26">
-        <v>0.5657492354740061</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L26">
         <v>185</v>
       </c>
       <c r="M26">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4871,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K30">
         <v>0.5</v>
@@ -4971,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K32">
         <v>0.4652777777777778</v>
@@ -5171,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K36">
         <v>0.4421052631578947</v>
@@ -5571,7 +5571,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>0.3888888888888889</v>
@@ -5771,7 +5771,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K48">
         <v>0.3673469387755102</v>
@@ -6121,7 +6121,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K55">
         <v>0.3333333333333333</v>
@@ -6371,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K60">
         <v>0.3333333333333333</v>
@@ -6721,7 +6721,7 @@
         <v>46</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K67">
         <v>0.3</v>
@@ -6821,7 +6821,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K69">
         <v>0.2962962962962963</v>
@@ -7121,7 +7121,7 @@
         <v>32</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K75">
         <v>0.2857142857142857</v>
@@ -7471,7 +7471,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K82">
         <v>0.2727272727272727</v>
@@ -7621,7 +7621,7 @@
         <v>37</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K85">
         <v>0.2676056338028169</v>
@@ -7721,7 +7721,7 @@
         <v>23</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K87">
         <v>0.2604166666666667</v>
@@ -7971,7 +7971,7 @@
         <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K92">
         <v>0.2380952380952381</v>
@@ -8071,7 +8071,7 @@
         <v>27</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K94">
         <v>0.2367149758454106</v>
@@ -8221,7 +8221,7 @@
         <v>9</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K97">
         <v>0.2333333333333333</v>
@@ -8371,7 +8371,7 @@
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K100">
         <v>0.2307692307692308</v>
@@ -8400,25 +8400,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0963855421686747</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>349</v>
@@ -8453,22 +8453,22 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>350</v>
@@ -8500,28 +8500,28 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K103">
         <v>0.2307692307692308</v>
@@ -8706,16 +8706,16 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>10</v>
@@ -8756,16 +8756,16 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>10</v>
@@ -8856,16 +8856,16 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>10</v>
@@ -8906,13 +8906,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F111">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -8956,16 +8956,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>10</v>
@@ -9000,13 +9000,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>87</v>
@@ -9100,13 +9100,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>361</v>
@@ -9150,25 +9150,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.08387096774193549</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C116">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>362</v>
@@ -9221,7 +9221,7 @@
         <v>11</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K117">
         <v>0.2142857142857143</v>
@@ -9256,16 +9256,16 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>11</v>
@@ -9306,16 +9306,16 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>11</v>
@@ -9356,16 +9356,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>11</v>
@@ -9400,25 +9400,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E121">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F121">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>366</v>
@@ -9450,13 +9450,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08333333333333333</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>367</v>
@@ -9500,25 +9500,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>368</v>
@@ -9550,13 +9550,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07843137254901961</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>369</v>
@@ -9603,10 +9603,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>370</v>
@@ -9706,16 +9706,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>12</v>
@@ -9750,13 +9750,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -9768,10 +9768,10 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K128">
         <v>0.2</v>
@@ -9800,25 +9800,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>76</v>
@@ -9853,22 +9853,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>373</v>
@@ -9900,25 +9900,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>374</v>
@@ -9950,25 +9950,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>375</v>
@@ -10000,25 +10000,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06896551724137931</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>376</v>
@@ -10050,7 +10050,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>377</v>
@@ -10100,13 +10100,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>378</v>
@@ -10221,7 +10221,7 @@
         <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K137">
         <v>0.1975308641975309</v>
@@ -10253,10 +10253,10 @@
         <v>0.0625</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K138">
         <v>0.1951219512195122</v>
@@ -10300,13 +10300,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0625</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10318,10 +10318,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K139">
         <v>0.1948051948051948</v>
@@ -10350,13 +10350,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>380</v>
@@ -10400,13 +10400,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.06040268456375839</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C141">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>381</v>
@@ -10456,22 +10456,22 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>16</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K142">
         <v>0.1893939393939394</v>
@@ -10500,7 +10500,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>382</v>
@@ -10550,25 +10550,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E144">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F144">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>383</v>
@@ -10606,16 +10606,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>17</v>
@@ -10653,22 +10653,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>385</v>
@@ -10706,16 +10706,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>17</v>
@@ -10750,13 +10750,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10768,10 +10768,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K148">
         <v>0.1858974358974359</v>
@@ -10800,7 +10800,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10818,10 +10818,10 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K149">
         <v>0.1830985915492958</v>
@@ -10853,22 +10853,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>387</v>
@@ -10900,13 +10900,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>388</v>
@@ -10950,25 +10950,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>389</v>
@@ -11003,22 +11003,22 @@
         <v>0.05</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>390</v>
@@ -11056,16 +11056,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>19</v>
@@ -11106,13 +11106,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F155">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -11150,25 +11150,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>393</v>
@@ -11200,25 +11200,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E157">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>394</v>
@@ -11250,25 +11250,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>7</v>
       </c>
       <c r="E158">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F158">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>395</v>
@@ -11300,25 +11300,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E159">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F159">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>396</v>
@@ -11350,28 +11350,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>0.29</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K160">
         <v>0.1772151898734177</v>
@@ -11450,25 +11450,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>398</v>
@@ -11500,25 +11500,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>399</v>
@@ -11550,25 +11550,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>400</v>
@@ -11600,25 +11600,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>401</v>
@@ -11650,25 +11650,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F166">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>402</v>
@@ -11700,28 +11700,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K167">
         <v>0.1739130434782609</v>
@@ -11750,25 +11750,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
         <v>8</v>
       </c>
       <c r="E168">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F168">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>403</v>
@@ -11806,13 +11806,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -11853,22 +11853,22 @@
         <v>0.04</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E170">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F170">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>405</v>
@@ -11906,16 +11906,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>24</v>
@@ -11950,25 +11950,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>407</v>
@@ -12000,28 +12000,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K173">
         <v>0.1666666666666667</v>
@@ -12050,7 +12050,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>408</v>
@@ -12100,25 +12100,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>409</v>
@@ -12156,16 +12156,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>26</v>
@@ -12200,25 +12200,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>411</v>
@@ -12250,25 +12250,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03703703703703703</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>412</v>
@@ -12300,25 +12300,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>413</v>
@@ -12350,25 +12350,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03508771929824561</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>414</v>
@@ -12406,16 +12406,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>28</v>
@@ -12456,16 +12456,16 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>28</v>
@@ -12500,25 +12500,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F183">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>417</v>
@@ -12550,25 +12550,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>418</v>
@@ -12600,25 +12600,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E185">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F185">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>419</v>
@@ -12650,13 +12650,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E186">
         <v>0.5</v>
@@ -12668,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>420</v>
@@ -12700,25 +12700,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03174603174603174</v>
+        <v>0.03125</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F187">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>421</v>
@@ -12753,22 +12753,22 @@
         <v>0.03125</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>422</v>
@@ -12800,25 +12800,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>423</v>
@@ -12850,25 +12850,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>424</v>
@@ -12900,25 +12900,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>425</v>
@@ -12950,7 +12950,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>426</v>
@@ -13006,16 +13006,16 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>34</v>
@@ -13050,7 +13050,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>428</v>
@@ -13100,25 +13100,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>429</v>
@@ -13156,16 +13156,16 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
         <v>35</v>
@@ -13206,13 +13206,13 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
@@ -13250,25 +13250,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>432</v>
@@ -13300,7 +13300,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02777777777777778</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>433</v>
@@ -13350,25 +13350,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>434</v>
@@ -13400,25 +13400,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>435</v>
@@ -13450,28 +13450,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K202">
         <v>0.1639344262295082</v>
@@ -13500,25 +13500,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02325581395348837</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>436</v>
@@ -13550,28 +13550,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K204">
         <v>0.1607142857142857</v>
@@ -13600,25 +13600,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02307692307692308</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E205">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>437</v>
@@ -13656,22 +13656,22 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>44</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K206">
         <v>0.1573849878934625</v>
@@ -13700,28 +13700,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K207">
         <v>0.15625</v>
@@ -13750,25 +13750,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>438</v>
@@ -13800,28 +13800,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02197802197802198</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K209">
         <v>0.1538461538461539</v>
@@ -13850,25 +13850,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>439</v>
@@ -13900,25 +13900,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>440</v>
@@ -13950,25 +13950,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>441</v>
@@ -14000,25 +14000,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02040816326530612</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>442</v>
@@ -14050,25 +14050,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>443</v>
@@ -14100,25 +14100,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01941747572815534</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>444</v>
@@ -14150,25 +14150,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F216">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>445</v>
@@ -14200,25 +14200,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>446</v>
@@ -14250,25 +14250,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01886792452830189</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="F218">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>447</v>
@@ -14300,25 +14300,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>448</v>
@@ -14350,25 +14350,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01796407185628742</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>449</v>
@@ -14400,25 +14400,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>450</v>
@@ -14450,25 +14450,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>451</v>
@@ -14556,13 +14556,13 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F224">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
@@ -14600,25 +14600,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>454</v>
@@ -14650,25 +14650,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>455</v>
@@ -14700,25 +14700,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F227">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>456</v>
@@ -14750,25 +14750,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01639344262295082</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>457</v>
@@ -14800,25 +14800,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01587301587301587</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F229">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>458</v>
@@ -14850,25 +14850,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01449275362318841</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E230">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F230">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>459</v>
@@ -14900,25 +14900,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01449275362318841</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>460</v>
@@ -14950,25 +14950,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01395348837209302</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>461</v>
@@ -15000,25 +15000,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01388888888888889</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D233">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E233">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F233">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>462</v>
@@ -15050,7 +15050,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0136986301369863</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15068,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>463</v>
@@ -15100,25 +15100,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0130718954248366</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E235">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F235">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>464</v>
@@ -15150,25 +15150,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E236">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F236">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>465</v>
@@ -15200,28 +15200,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01265822784810127</v>
+        <v>0.0125</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K237">
         <v>0.1428571428571428</v>
@@ -15250,25 +15250,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01265822784810127</v>
+        <v>0.0125</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>466</v>
@@ -15303,22 +15303,22 @@
         <v>0.0125</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>467</v>
@@ -15350,25 +15350,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0125</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E240">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>468</v>
@@ -15400,25 +15400,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0125</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>469</v>
@@ -15450,25 +15450,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01219512195121951</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>470</v>
@@ -15500,25 +15500,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>471</v>
@@ -15550,25 +15550,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01204819277108434</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>472</v>
@@ -15600,25 +15600,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0119047619047619</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>473</v>
@@ -15650,25 +15650,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0108695652173913</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F246">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>474</v>
@@ -15700,25 +15700,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01041666666666667</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>475</v>
@@ -15756,13 +15756,13 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -15800,25 +15800,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01020408163265306</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E249">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F249">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>477</v>
@@ -15850,7 +15850,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01020408163265306</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>478</v>
@@ -15900,25 +15900,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.009803921568627451</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>479</v>
@@ -15950,25 +15950,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.009708737864077669</v>
+        <v>0.008680555555555556</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>102</v>
+        <v>571</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>480</v>
@@ -16000,13 +16000,13 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.009259259259259259</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D253">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E253">
         <v>0.96</v>
@@ -16018,10 +16018,10 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>107</v>
+        <v>348</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K253">
         <v>0.1367521367521368</v>
@@ -16050,25 +16050,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.008680555555555556</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F254">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>571</v>
+        <v>125</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>481</v>
@@ -16100,25 +16100,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.008547008547008548</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E255">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F255">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>348</v>
+        <v>126</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>482</v>
@@ -16150,25 +16150,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.007936507936507936</v>
+        <v>0.0078125</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F256">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>483</v>
@@ -16200,28 +16200,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.007874015748031496</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E257">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F257">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K257">
         <v>0.136</v>
@@ -16250,25 +16250,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0078125</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E258">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F258">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>484</v>
@@ -16300,25 +16300,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.007633587786259542</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D259">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E259">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F259">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>130</v>
+        <v>783</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>485</v>
@@ -16350,25 +16350,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.007633587786259542</v>
+        <v>0.007446808510638298</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D260">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E260">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F260">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>130</v>
+        <v>933</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>486</v>
@@ -16400,25 +16400,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.007604562737642586</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C261">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D261">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="E261">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F261">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>783</v>
+        <v>1885</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>487</v>
@@ -16450,25 +16450,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.007446808510638298</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C262">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E262">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F262">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>933</v>
+        <v>154</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>488</v>
@@ -16500,25 +16500,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.00684931506849315</v>
+        <v>0.006321112515802781</v>
       </c>
       <c r="C263">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D263">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="E263">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>1885</v>
+        <v>786</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>489</v>
@@ -16550,25 +16550,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.006451612903225806</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E264">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F264">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>490</v>
@@ -16600,13 +16600,13 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.006321112515802781</v>
+        <v>0.004705030763662686</v>
       </c>
       <c r="C265">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D265">
-        <v>115</v>
+        <v>357</v>
       </c>
       <c r="E265">
         <v>0.96</v>
@@ -16618,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>786</v>
+        <v>2750</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>491</v>
@@ -16650,25 +16650,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.005319148936170213</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E266">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F266">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>492</v>
@@ -16700,25 +16700,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.004705030763662686</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="C267">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F267">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>2750</v>
+        <v>217</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>493</v>
@@ -16750,25 +16750,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.004672897196261682</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E268">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F268">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>494</v>
@@ -16800,25 +16800,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.004587155963302753</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D269">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F269">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>217</v>
+        <v>780</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>495</v>
@@ -16850,28 +16850,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0045662100456621</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E270">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K270">
         <v>0.1261261261261261</v>
@@ -16900,25 +16900,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.003831417624521073</v>
+        <v>0.003661784287616511</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D271">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="E271">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F271">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>780</v>
+        <v>2993</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>496</v>
@@ -16950,25 +16950,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.003745318352059925</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>497</v>
@@ -17000,25 +17000,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.003661784287616511</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C273">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="E273">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F273">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>2993</v>
+        <v>283</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>498</v>
@@ -17050,25 +17050,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.003571428571428571</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E274">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F274">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>499</v>
@@ -17100,25 +17100,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.00352112676056338</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E275">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F275">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>500</v>
@@ -17150,25 +17150,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.003484320557491289</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E276">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F276">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>501</v>
@@ -17200,25 +17200,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.003436426116838488</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E277">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F277">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>290</v>
+        <v>1098</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>502</v>
@@ -17250,25 +17250,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.002865329512893983</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>503</v>
@@ -17300,28 +17300,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.002724795640326975</v>
+        <v>0.002309468822170901</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E279">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F279">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>1098</v>
+        <v>432</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K279">
         <v>0.125</v>
@@ -17350,25 +17350,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.002680965147453083</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>372</v>
+        <v>515</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>504</v>
@@ -17400,28 +17400,28 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.002309468822170901</v>
+        <v>0.001883239171374765</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E281">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F281">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K281">
         <v>0.125</v>
@@ -17446,30 +17446,6 @@
       </c>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282">
-        <v>0.001937984496124031</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>52</v>
-      </c>
-      <c r="E282">
-        <v>0.98</v>
-      </c>
-      <c r="F282">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282">
-        <v>515</v>
-      </c>
       <c r="J282" s="1" t="s">
         <v>505</v>
       </c>
@@ -17496,30 +17472,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0.001883239171374765</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>15</v>
-      </c>
-      <c r="E283">
-        <v>0.93</v>
-      </c>
-      <c r="F283">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>530</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>506</v>
       </c>
@@ -17547,7 +17499,7 @@
     </row>
     <row r="284" spans="1:17">
       <c r="J284" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K284">
         <v>0.125</v>
@@ -18015,7 +17967,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K302">
         <v>0.1246376811594203</v>
@@ -18041,7 +17993,7 @@
     </row>
     <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K303">
         <v>0.1245791245791246</v>
@@ -18067,7 +18019,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K304">
         <v>0.1227678571428571</v>
@@ -18093,7 +18045,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K305">
         <v>0.1226993865030675</v>
@@ -18223,7 +18175,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K310">
         <v>0.12</v>
@@ -18587,7 +18539,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K324">
         <v>0.1150234741784038</v>
@@ -18613,7 +18565,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K325">
         <v>0.1147286821705426</v>
@@ -18717,7 +18669,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K329">
         <v>0.1111829347123465</v>
@@ -18899,7 +18851,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K336">
         <v>0.1111111111111111</v>
@@ -19575,7 +19527,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K362">
         <v>0.1098901098901099</v>
@@ -19627,7 +19579,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K364">
         <v>0.1092783505154639</v>
@@ -19705,7 +19657,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K367">
         <v>0.108695652173913</v>
@@ -20173,7 +20125,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K385">
         <v>0.1025641025641026</v>
@@ -20225,7 +20177,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K387">
         <v>0.1022727272727273</v>
@@ -20277,7 +20229,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K389">
         <v>0.1018518518518518</v>
@@ -20745,7 +20697,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K407">
         <v>0.1</v>
@@ -21213,7 +21165,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K425">
         <v>0.09745762711864407</v>
@@ -21291,7 +21243,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K428">
         <v>0.09615384615384616</v>
@@ -21395,7 +21347,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K432">
         <v>0.09523809523809523</v>
@@ -21447,7 +21399,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K434">
         <v>0.09375</v>
@@ -21473,7 +21425,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K435">
         <v>0.09333333333333334</v>
@@ -21525,7 +21477,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K437">
         <v>0.09120521172638436</v>
@@ -22331,7 +22283,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K468">
         <v>0.09059233449477352</v>
@@ -22357,7 +22309,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K469">
         <v>0.09010600706713781</v>
@@ -22383,7 +22335,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K470">
         <v>0.09009009009009009</v>
@@ -22435,7 +22387,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K472">
         <v>0.08860759493670886</v>
@@ -22513,7 +22465,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K475">
         <v>0.08771929824561403</v>
@@ -22929,7 +22881,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K491">
         <v>0.08333333333333333</v>
@@ -23241,7 +23193,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K503">
         <v>0.08333333333333333</v>
@@ -23371,7 +23323,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K508">
         <v>0.08247422680412371</v>
@@ -23397,7 +23349,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K509">
         <v>0.08163265306122448</v>
@@ -23449,7 +23401,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K511">
         <v>0.08088235294117647</v>
@@ -23475,7 +23427,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K512">
         <v>0.08064516129032258</v>
@@ -23501,7 +23453,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K513">
         <v>0.08064516129032258</v>
@@ -23605,7 +23557,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K517">
         <v>0.07894736842105263</v>
@@ -23631,7 +23583,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K518">
         <v>0.07894736842105263</v>
@@ -23735,7 +23687,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K522">
         <v>0.07692307692307693</v>
@@ -23787,7 +23739,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K524">
         <v>0.07692307692307693</v>
@@ -23813,7 +23765,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K525">
         <v>0.07692307692307693</v>
@@ -24723,7 +24675,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K560">
         <v>0.07142857142857142</v>
@@ -24749,7 +24701,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K561">
         <v>0.07142857142857142</v>
@@ -24853,7 +24805,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K565">
         <v>0.07142857142857142</v>
@@ -25191,7 +25143,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K578">
         <v>0.07142857142857142</v>
@@ -25633,7 +25585,7 @@
     </row>
     <row r="595" spans="10:17">
       <c r="J595" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K595">
         <v>0.0684931506849315</v>
@@ -25659,7 +25611,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K596">
         <v>0.06818181818181818</v>
@@ -25685,7 +25637,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K597">
         <v>0.06818181818181818</v>
@@ -25867,7 +25819,7 @@
     </row>
     <row r="604" spans="10:17">
       <c r="J604" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K604">
         <v>0.06666666666666667</v>
@@ -26803,7 +26755,7 @@
     </row>
     <row r="640" spans="10:17">
       <c r="J640" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K640">
         <v>0.0625</v>
@@ -27115,7 +27067,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K652">
         <v>0.06175548589341693</v>
@@ -27193,7 +27145,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K655">
         <v>0.06060606060606061</v>
@@ -28441,7 +28393,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K703">
         <v>0.05181347150259067</v>
@@ -28545,7 +28497,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K707">
         <v>0.05</v>
@@ -28597,7 +28549,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K709">
         <v>0.05</v>
@@ -29117,7 +29069,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K729">
         <v>0.046875</v>
@@ -29325,7 +29277,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K737">
         <v>0.04545454545454546</v>
@@ -29481,7 +29433,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K743">
         <v>0.04347826086956522</v>
@@ -29585,7 +29537,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K747">
         <v>0.04210526315789474</v>
@@ -30287,7 +30239,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K774">
         <v>0.03703703703703703</v>
@@ -30781,7 +30733,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K793">
         <v>0.03571428571428571</v>
@@ -30833,7 +30785,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K795">
         <v>0.03539823008849557</v>
@@ -30911,7 +30863,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K798">
         <v>0.03448275862068965</v>
@@ -31067,7 +31019,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K804">
         <v>0.03225806451612903</v>
@@ -31145,7 +31097,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K807">
         <v>0.03125</v>
@@ -31171,7 +31123,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K808">
         <v>0.03125</v>
@@ -31249,7 +31201,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K811">
         <v>0.03064066852367688</v>
@@ -31379,7 +31331,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K816">
         <v>0.03010033444816054</v>
@@ -31405,7 +31357,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K817">
         <v>0.03</v>
@@ -31457,7 +31409,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K819">
         <v>0.0291363163371488</v>
@@ -31509,7 +31461,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K821">
         <v>0.02857142857142857</v>
@@ -31535,7 +31487,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K822">
         <v>0.02857142857142857</v>
@@ -31821,7 +31773,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K833">
         <v>0.02573529411764706</v>
@@ -31925,7 +31877,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K837">
         <v>0.02380952380952381</v>
@@ -32393,7 +32345,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K855">
         <v>0.01736111111111111</v>
@@ -32497,7 +32449,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K859">
         <v>0.01666666666666667</v>
@@ -32601,7 +32553,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K863">
         <v>0.01578947368421053</v>
@@ -32627,7 +32579,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K864">
         <v>0.01550387596899225</v>
@@ -32887,7 +32839,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K874">
         <v>0.007874015748031496</v>
